--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="410">
   <si>
     <t>Path</t>
   </si>
@@ -543,13 +543,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-pregnancy-status</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -883,6 +877,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1257,6 +1254,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1479,7 +1482,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.0234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3327,13 +3330,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3366,27 +3367,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3409,19 +3410,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3470,7 +3471,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3485,19 +3486,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3506,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3528,16 +3529,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3587,7 +3588,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3608,13 +3609,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3622,11 +3623,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3645,19 +3646,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3721,19 +3722,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3741,11 +3742,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3764,19 +3765,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3825,7 +3826,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3840,19 +3841,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3861,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3883,16 +3884,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3942,7 +3943,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3963,13 +3964,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3977,7 +3978,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4000,17 +4001,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4059,7 +4060,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4074,19 +4075,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4094,7 +4095,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4117,19 +4118,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4178,7 +4179,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4187,7 +4188,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4196,24 +4197,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4239,16 +4240,16 @@
         <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4273,14 +4274,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4306,7 +4307,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4321,7 +4322,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,11 +4333,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4358,16 +4359,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,13 +4393,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4416,7 +4417,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,24 +4435,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4474,19 +4475,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,7 +4536,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4556,10 +4557,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4571,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4596,13 +4597,13 @@
         <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4628,14 +4629,14 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4670,24 +4671,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4713,16 +4714,16 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4747,14 +4748,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4792,10 +4793,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,16 +4830,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4888,7 +4889,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4906,24 +4907,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4946,16 +4947,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5005,7 +5006,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5023,24 +5024,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5063,19 +5064,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5124,7 +5125,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5136,19 +5137,19 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5159,7 +5160,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5185,10 +5186,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,7 +5240,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5263,7 +5264,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5274,7 +5275,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5303,7 +5304,7 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5356,7 +5357,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5380,7 +5381,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5391,11 +5392,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5417,10 +5418,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5475,7 +5476,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5510,7 +5511,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5533,13 +5534,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5590,7 +5591,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5599,7 +5600,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5611,10 +5612,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5625,7 +5626,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5648,13 +5649,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5705,7 +5706,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5714,7 +5715,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5726,10 +5727,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5766,16 +5767,16 @@
         <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5803,11 +5804,11 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5842,13 +5843,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5859,7 +5860,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5885,16 +5886,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5919,14 +5920,14 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5961,13 +5962,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5978,7 +5979,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6001,17 +6002,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6061,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6084,7 +6085,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6095,7 +6096,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6121,10 +6122,10 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6175,7 +6176,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6196,10 +6197,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6211,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,16 +6234,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6292,7 +6293,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6313,10 +6314,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6327,7 +6328,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6350,16 +6351,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6409,7 +6410,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6430,10 +6431,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6444,7 +6445,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6467,19 +6468,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6528,7 +6529,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6549,10 +6550,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6563,7 +6564,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6589,10 +6590,10 @@
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6643,7 +6644,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6667,7 +6668,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6678,7 +6679,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6707,7 +6708,7 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>104</v>
@@ -6760,7 +6761,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6784,7 +6785,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6795,11 +6796,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6821,10 +6822,10 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6879,7 +6880,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6914,7 +6915,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6940,13 +6941,13 @@
         <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>167</v>
@@ -6974,13 +6975,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6998,7 +6999,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7016,16 +7017,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7033,7 +7034,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7056,19 +7057,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7117,7 +7118,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7135,24 +7136,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7178,16 +7179,16 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7212,14 +7213,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X49" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7245,7 +7246,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7260,7 +7261,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7271,11 +7272,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7297,16 +7298,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,13 +7332,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7355,7 +7356,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7373,24 +7374,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,16 +7417,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7474,7 +7475,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7495,10 +7496,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -1229,6 +1229,16 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of component</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1301,6 +1311,28 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>arvTreatmentStatusForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
+  </si>
+  <si>
+    <t>hivTestResultForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/HIVRapidTestResults</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1459,7 +1491,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1485,7 +1517,7 @@
     <col min="25" max="25" width="81.0234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -6517,16 +6549,16 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>381</v>
@@ -6550,10 +6582,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6564,7 +6596,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6679,7 +6711,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6796,7 +6828,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6915,7 +6947,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6941,13 +6973,13 @@
         <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>167</v>
@@ -6978,10 +7010,10 @@
         <v>275</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6999,7 +7031,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7017,7 +7049,7 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>171</v>
@@ -7034,7 +7066,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7060,13 +7092,13 @@
         <v>231</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>235</v>
@@ -7118,7 +7150,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7136,7 +7168,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>238</v>
@@ -7153,7 +7185,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7179,13 +7211,13 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>245</v>
@@ -7237,7 +7269,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7272,7 +7304,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7356,7 +7388,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7391,7 +7423,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7417,10 +7449,10 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>313</v>
@@ -7475,7 +7507,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7508,8 +7540,3203 @@
         <v>45</v>
       </c>
     </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X65" s="2"/>
+      <c r="Y65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7519,7 +10746,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -1332,7 +1332,7 @@
     <t>hivTestResultForChild</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/HIVRapidTestResults</t>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
   </si>
 </sst>
 </file>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -543,7 +543,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-pregnancy-status</t>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-pregnancy-outcome</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1514,7 +1514,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.0234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -656,8 +656,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -672,6 +672,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -682,6 +689,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1233,7 +1243,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the type of component</t>
+    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>open</t>
@@ -1313,26 +1323,156 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>gest_age</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="76516-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>arvTreatmentStatusForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
-  </si>
-  <si>
-    <t>hivTestResultForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1491,7 +1631,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1517,7 +1657,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3300,7 +3440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>162</v>
       </c>
@@ -3316,7 +3456,7 @@
         <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3846,16 +3986,14 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>202</v>
@@ -3873,31 +4011,33 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3907,7 +4047,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -3916,18 +4056,20 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3975,7 +4117,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3990,27 +4132,27 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4021,10 +4163,10 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4033,18 +4175,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4092,13 +4234,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4107,19 +4249,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4127,7 +4269,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4138,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4150,19 +4292,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4211,42 +4351,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4266,22 +4406,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4306,13 +4446,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4330,7 +4470,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4339,7 +4479,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4348,35 +4488,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4391,16 +4531,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4425,13 +4565,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4449,16 +4589,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4467,28 +4607,28 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4507,19 +4647,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4544,13 +4684,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4568,7 +4708,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4586,24 +4726,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4614,7 +4754,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4626,18 +4766,20 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4661,13 +4803,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4685,13 +4827,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4703,24 +4845,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4746,17 +4888,15 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4780,13 +4920,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4804,7 +4944,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4822,24 +4962,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4862,18 +5002,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4897,13 +5039,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4921,7 +5063,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4939,24 +5081,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4979,16 +5121,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5038,7 +5180,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5056,24 +5198,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5084,7 +5226,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5096,20 +5238,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5157,42 +5297,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5203,7 +5343,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5215,16 +5355,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5272,19 +5416,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5293,10 +5437,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5307,18 +5451,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5330,17 +5474,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5389,31 +5531,31 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5428,7 +5570,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5441,26 +5583,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5508,7 +5648,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5532,7 +5672,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5543,39 +5683,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5623,19 +5767,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5644,10 +5788,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5658,7 +5802,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5681,13 +5825,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5738,7 +5882,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5747,7 +5891,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5759,10 +5903,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5773,7 +5917,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5796,20 +5940,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5833,13 +5973,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5857,7 +5997,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5866,7 +6006,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5875,13 +6015,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5892,7 +6032,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5903,7 +6043,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5918,16 +6058,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5952,13 +6092,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5976,13 +6116,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5994,13 +6134,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6011,7 +6151,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6022,7 +6162,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6034,17 +6174,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6069,13 +6211,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6093,13 +6235,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6111,13 +6253,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6128,7 +6270,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6151,16 +6293,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6208,7 +6352,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6229,10 +6373,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6243,7 +6387,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6254,7 +6398,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6263,20 +6407,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6325,13 +6467,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6346,10 +6488,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6360,7 +6502,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6383,16 +6525,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6442,7 +6584,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6463,10 +6605,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6477,7 +6619,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6500,20 +6642,18 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6549,19 +6689,19 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6582,10 +6722,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6596,7 +6736,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6607,7 +6747,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6616,19 +6756,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6664,31 +6808,31 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6697,10 +6841,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6711,18 +6855,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6734,17 +6878,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6793,31 +6935,31 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6828,11 +6970,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6845,26 +6987,24 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6912,7 +7052,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6936,7 +7076,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6947,42 +7087,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7007,13 +7147,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7031,34 +7171,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7066,7 +7206,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7074,7 +7214,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7089,19 +7229,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7126,13 +7266,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7150,10 +7290,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7168,24 +7308,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7205,22 +7345,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7245,13 +7385,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7269,7 +7409,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7278,7 +7418,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7287,35 +7427,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7330,16 +7470,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>254</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7364,13 +7504,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7388,16 +7528,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7406,28 +7546,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7446,19 +7586,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>256</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>257</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7483,13 +7623,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7507,7 +7647,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7525,28 +7665,26 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B52" t="s" s="2">
         <v>413</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7564,22 +7702,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7628,7 +7766,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7649,10 +7787,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7661,11 +7799,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7677,25 +7817,29 @@
         <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7743,19 +7887,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7764,10 +7908,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7778,18 +7922,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7801,17 +7945,15 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7860,31 +8002,31 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7895,11 +8037,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7912,26 +8054,24 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7979,7 +8119,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8003,7 +8143,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8014,42 +8154,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8074,11 +8214,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8096,34 +8238,34 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8131,7 +8273,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8139,7 +8281,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>55</v>
@@ -8154,19 +8296,19 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>415</v>
+        <v>153</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8176,7 +8318,7 @@
         <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>45</v>
@@ -8191,13 +8333,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8215,10 +8357,10 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>55</v>
@@ -8233,24 +8375,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8270,22 +8412,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>418</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8310,31 +8452,29 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8343,7 +8483,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8352,35 +8492,37 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8389,22 +8531,22 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>418</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>253</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>255</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8429,13 +8571,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8453,13 +8595,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8471,24 +8613,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>259</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8499,7 +8641,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8511,20 +8653,16 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8572,19 +8710,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8593,10 +8731,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8607,20 +8745,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8629,23 +8765,21 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8681,19 +8815,19 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8705,7 +8839,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8714,10 +8848,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8726,9 +8860,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8742,25 +8876,29 @@
         <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8808,7 +8946,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>321</v>
+        <v>430</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8820,7 +8958,7 @@
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8829,10 +8967,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8843,45 +8981,47 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>102</v>
+        <v>434</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8901,13 +9041,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -8925,19 +9065,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -8946,10 +9086,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -8960,42 +9100,40 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>328</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9044,19 +9182,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9065,10 +9203,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9079,7 +9217,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9087,7 +9225,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>55</v>
@@ -9102,19 +9240,17 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9139,11 +9275,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9161,16 +9299,16 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9179,16 +9317,16 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>172</v>
+        <v>456</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9196,7 +9334,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9219,19 +9357,19 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9280,7 +9418,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9298,24 +9436,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>239</v>
+        <v>463</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9341,16 +9479,16 @@
         <v>153</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9375,13 +9513,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9399,7 +9537,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9408,7 +9546,7 @@
         <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>67</v>
@@ -9423,7 +9561,7 @@
         <v>98</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9434,11 +9572,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9460,16 +9598,16 @@
         <v>153</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9494,13 +9632,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9518,7 +9656,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9536,24 +9674,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9579,16 +9717,16 @@
         <v>45</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9637,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9658,1085 +9796,20 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO78">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10746,7 +9819,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -656,8 +656,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -672,13 +672,6 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -689,9 +682,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1243,7 +1233,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the component.code pattern</t>
+    <t>Slice based on the type of component</t>
   </si>
   <si>
     <t>open</t>
@@ -1323,156 +1313,26 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>gest_age</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="76516-4"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
+    <t>time</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>arvTreatmentStatusForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
+  </si>
+  <si>
+    <t>hivTestResultForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1631,7 +1491,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1657,7 +1517,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3440,7 +3300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>162</v>
       </c>
@@ -3456,7 +3316,7 @@
         <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3986,14 +3846,16 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>202</v>
@@ -4011,33 +3873,31 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4047,7 +3907,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -4056,20 +3916,18 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4117,7 +3975,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4132,27 +3990,27 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4163,10 +4021,10 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4175,18 +4033,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4234,13 +4092,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4249,19 +4107,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4269,7 +4127,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4280,7 +4138,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4292,17 +4150,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4351,42 +4211,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4406,22 +4266,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4446,13 +4306,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4470,7 +4330,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4479,7 +4339,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4488,35 +4348,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4531,16 +4391,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4565,40 +4425,40 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4607,28 +4467,28 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4647,19 +4507,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4684,13 +4544,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4708,7 +4568,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4726,24 +4586,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4754,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4766,20 +4626,18 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4803,13 +4661,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4827,13 +4685,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4845,24 +4703,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4888,15 +4746,17 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4920,13 +4780,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4944,7 +4804,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4962,24 +4822,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5002,20 +4862,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5039,31 +4897,31 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5081,24 +4939,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5121,16 +4979,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5180,7 +5038,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5198,24 +5056,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5226,7 +5084,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5238,18 +5096,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5297,42 +5157,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5343,7 +5203,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5355,20 +5215,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>313</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5416,19 +5272,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5437,10 +5293,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5451,18 +5307,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5474,15 +5330,17 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>322</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5531,19 +5389,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5555,7 +5413,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5570,7 +5428,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>100</v>
+        <v>327</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5583,24 +5441,26 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5648,7 +5508,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5672,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5683,43 +5543,39 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5767,19 +5623,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5788,10 +5644,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5802,7 +5658,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5825,13 +5681,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5882,7 +5738,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5891,7 +5747,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5903,10 +5759,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5917,7 +5773,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5940,16 +5796,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5973,13 +5833,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5997,7 +5857,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6006,7 +5866,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -6015,13 +5875,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6032,7 +5892,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6043,7 +5903,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6058,16 +5918,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6092,37 +5952,37 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6134,13 +5994,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6151,7 +6011,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6162,7 +6022,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6174,19 +6034,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6211,13 +6069,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6235,13 +6093,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6253,13 +6111,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6270,7 +6128,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6293,18 +6151,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>362</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6352,7 +6208,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6373,10 +6229,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6387,7 +6243,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6398,7 +6254,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6407,18 +6263,20 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6467,13 +6325,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6488,10 +6346,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6502,7 +6360,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6525,16 +6383,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6584,7 +6442,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6605,10 +6463,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6619,7 +6477,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6642,18 +6500,20 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6689,19 +6549,19 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6722,10 +6582,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6736,7 +6596,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6747,7 +6607,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6756,23 +6616,19 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>313</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6808,31 +6664,31 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6841,10 +6697,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6855,18 +6711,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6878,15 +6734,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6935,19 +6793,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6959,7 +6817,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6970,11 +6828,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>100</v>
+        <v>327</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6987,24 +6845,26 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7052,7 +6912,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7076,7 +6936,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7087,42 +6947,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7147,13 +7007,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7171,34 +7031,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7206,7 +7066,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7214,7 +7074,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7229,19 +7089,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7266,34 +7126,34 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7308,24 +7168,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7345,22 +7205,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7385,13 +7245,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7409,7 +7269,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7418,7 +7278,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7427,35 +7287,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7470,16 +7330,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>253</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>254</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7504,13 +7364,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7528,16 +7388,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7546,28 +7406,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7586,19 +7446,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>256</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>257</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7623,13 +7483,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7647,7 +7507,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7665,26 +7525,28 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7702,22 +7564,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7766,7 +7628,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7787,10 +7649,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7799,13 +7661,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7817,29 +7677,25 @@
         <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>313</v>
+        <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7887,19 +7743,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7908,10 +7764,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7922,18 +7778,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7945,15 +7801,17 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>322</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8002,19 +7860,19 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -8026,7 +7884,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8037,11 +7895,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>100</v>
+        <v>327</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8054,24 +7912,26 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8119,7 +7979,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8143,7 +8003,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8154,42 +8014,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8214,13 +8074,11 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8238,34 +8096,34 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8273,7 +8131,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8281,7 +8139,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>55</v>
@@ -8296,19 +8154,19 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>399</v>
+        <v>233</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8318,7 +8176,7 @@
         <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>45</v>
@@ -8333,34 +8191,34 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AF57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>55</v>
@@ -8375,24 +8233,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8412,22 +8270,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8452,29 +8310,31 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8483,7 +8343,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8492,37 +8352,35 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8531,22 +8389,22 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>405</v>
+        <v>253</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>255</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8571,13 +8429,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8595,13 +8453,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8613,24 +8471,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>407</v>
+        <v>259</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8641,7 +8499,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8653,16 +8511,20 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8710,19 +8572,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8731,10 +8593,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8745,18 +8607,20 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8765,21 +8629,23 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8815,19 +8681,19 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8839,7 +8705,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8848,10 +8714,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8860,9 +8726,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8876,29 +8742,25 @@
         <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>425</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8946,7 +8808,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>430</v>
+        <v>321</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8958,7 +8820,7 @@
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8967,10 +8829,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>432</v>
+        <v>322</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8981,47 +8843,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9041,13 +8901,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>438</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9065,19 +8925,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9086,10 +8946,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9100,40 +8960,42 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>446</v>
+        <v>110</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9182,19 +9044,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9203,10 +9065,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>98</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9217,7 +9079,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9225,7 +9087,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>55</v>
@@ -9240,17 +9102,19 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>453</v>
+        <v>167</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9275,13 +9139,11 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9299,16 +9161,16 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9317,16 +9179,16 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>171</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>456</v>
+        <v>172</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9334,7 +9196,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9357,19 +9219,19 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>415</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>459</v>
+        <v>233</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>461</v>
+        <v>235</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9418,7 +9280,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9436,24 +9298,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>448</v>
+        <v>238</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>463</v>
+        <v>239</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9479,16 +9341,16 @@
         <v>153</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9513,13 +9375,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9537,7 +9399,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9546,7 +9408,7 @@
         <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>67</v>
@@ -9561,7 +9423,7 @@
         <v>98</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9572,11 +9434,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9598,16 +9460,16 @@
         <v>153</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9632,13 +9494,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9656,7 +9518,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9674,24 +9536,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9717,16 +9579,16 @@
         <v>45</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9775,7 +9637,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9796,20 +9658,1085 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9819,7 +10746,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-01-16T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -762,8 +765,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -778,6 +781,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -788,6 +798,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1339,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the type of component</t>
+    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>open</t>
@@ -1419,26 +1432,156 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>gest_age</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="76516-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>arvTreatmentStatusForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
-  </si>
-  <si>
-    <t>hivTestResultForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
 </sst>
 </file>
@@ -1567,6 +1710,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1743,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1753,7 +1911,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1779,7 +1937,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1920,7 +2078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2037,7 +2195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>90</v>
       </c>
@@ -2154,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>98</v>
       </c>
@@ -2269,7 +2427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -2386,7 +2544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>110</v>
       </c>
@@ -2503,7 +2661,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2620,7 +2778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>127</v>
       </c>
@@ -2737,7 +2895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>135</v>
       </c>
@@ -2854,7 +3012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -2973,7 +3131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3090,7 +3248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3207,7 +3365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3324,7 +3482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3443,7 +3601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3578,7 +3736,7 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3679,7 +3837,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>211</v>
       </c>
@@ -3798,7 +3956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -3915,7 +4073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4034,7 +4192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>238</v>
       </c>
@@ -4108,16 +4266,14 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>238</v>
@@ -4135,19 +4291,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4155,11 +4311,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4169,7 +4327,7 @@
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4178,18 +4336,20 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4237,7 +4397,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4252,19 +4412,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4272,7 +4432,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4283,10 +4443,10 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4295,18 +4455,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4354,13 +4514,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4369,27 +4529,27 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4400,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4412,19 +4572,17 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4473,42 +4631,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4528,22 +4686,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4568,13 +4726,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4592,7 +4750,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4601,7 +4759,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4610,35 +4768,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4653,16 +4811,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4687,13 +4845,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4711,16 +4869,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4729,28 +4887,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4769,19 +4927,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4806,13 +4964,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4830,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4848,24 +5006,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4876,7 +5034,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4888,18 +5046,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4923,13 +5083,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -4947,13 +5107,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -4965,24 +5125,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5008,17 +5168,15 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5042,13 +5200,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5066,7 +5224,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5084,24 +5242,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5124,18 +5282,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5159,13 +5319,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5183,7 +5343,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5201,24 +5361,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5241,16 +5401,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5300,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5318,24 +5478,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5346,7 +5506,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5358,20 +5518,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5419,42 +5577,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5465,7 +5623,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5477,16 +5635,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5534,53 +5696,53 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5592,17 +5754,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5651,32 +5811,32 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5684,13 +5844,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5703,26 +5863,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5770,7 +5928,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5794,7 +5952,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5803,41 +5961,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5885,19 +6047,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5906,10 +6068,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5918,9 +6080,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5943,13 +6105,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6000,7 +6162,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6009,7 +6171,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6021,21 +6183,21 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6058,20 +6220,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6095,13 +6253,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6119,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6286,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6137,13 +6295,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6152,9 +6310,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6165,7 +6323,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6180,16 +6338,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6214,13 +6372,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6238,13 +6396,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6256,13 +6414,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6271,9 +6429,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6284,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6296,17 +6454,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6331,13 +6491,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6355,13 +6515,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6373,13 +6533,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6388,9 +6548,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6413,16 +6573,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6470,7 +6632,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6491,21 +6653,21 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6516,7 +6678,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6525,20 +6687,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6587,13 +6747,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6608,10 +6768,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6620,9 +6780,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6645,16 +6805,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6704,7 +6864,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6725,10 +6885,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6737,9 +6897,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6762,20 +6922,18 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6811,19 +6969,19 @@
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6844,10 +7002,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6856,9 +7014,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6869,7 +7027,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6878,19 +7036,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6926,31 +7088,31 @@
         <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -6959,10 +7121,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6971,20 +7133,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -6996,17 +7158,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7055,32 +7215,32 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7088,13 +7248,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7107,26 +7267,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7174,7 +7332,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7198,7 +7356,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7207,44 +7365,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7269,13 +7427,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7293,42 +7451,42 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7336,7 +7494,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7351,19 +7509,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7388,13 +7546,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7412,10 +7570,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7430,24 +7588,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7467,22 +7625,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7507,13 +7665,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7531,7 +7689,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7540,7 +7698,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7549,35 +7707,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7592,16 +7750,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7626,13 +7784,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7650,16 +7808,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7668,28 +7826,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7708,19 +7866,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>447</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>293</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7745,13 +7903,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7769,7 +7927,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7787,28 +7945,26 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B52" t="s" s="2">
         <v>449</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7826,22 +7982,22 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7890,7 +8046,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7911,10 +8067,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -7925,9 +8081,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7939,25 +8097,29 @@
         <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8005,19 +8167,19 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -8026,10 +8188,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8038,20 +8200,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>81</v>
@@ -8063,17 +8225,15 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8122,32 +8282,32 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8155,13 +8315,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8174,26 +8334,24 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8241,7 +8399,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8265,7 +8423,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8274,44 +8432,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8336,11 +8494,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8358,42 +8518,42 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8401,7 +8561,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>91</v>
@@ -8416,19 +8576,19 @@
         <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8438,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8453,13 +8613,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8477,10 +8637,10 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -8495,24 +8655,24 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8532,22 +8692,22 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8572,31 +8732,29 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8605,7 +8763,7 @@
         <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -8614,35 +8772,37 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8651,22 +8811,22 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -8691,13 +8851,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -8715,13 +8875,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -8733,24 +8893,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8761,7 +8921,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -8773,20 +8933,16 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8834,19 +8990,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -8855,10 +9011,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8867,22 +9023,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -8891,23 +9045,21 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>418</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8943,19 +9095,19 @@
         <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8967,7 +9119,7 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -8976,10 +9128,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -8990,7 +9142,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9004,25 +9156,29 @@
         <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>461</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>355</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9070,7 +9226,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9082,7 +9238,7 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9091,10 +9247,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9103,47 +9259,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9163,13 +9321,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9187,19 +9345,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9208,10 +9366,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9220,44 +9378,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9306,19 +9462,19 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9327,10 +9483,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>134</v>
+        <v>485</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9339,9 +9495,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9349,7 +9505,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>91</v>
@@ -9364,19 +9520,17 @@
         <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>203</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9401,11 +9555,13 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9423,16 +9579,16 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -9441,24 +9597,24 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>207</v>
+        <v>484</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>208</v>
+        <v>492</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9481,19 +9637,19 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>451</v>
+        <v>111</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>269</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9542,7 +9698,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9560,24 +9716,24 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9603,16 +9759,16 @@
         <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9637,13 +9793,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9661,7 +9817,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9670,7 +9826,7 @@
         <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -9685,7 +9841,7 @@
         <v>134</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9694,13 +9850,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9722,16 +9878,16 @@
         <v>189</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9756,13 +9912,13 @@
         <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>81</v>
@@ -9780,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9798,24 +9954,24 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9841,16 +9997,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -9899,7 +10055,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9920,1084 +10076,37 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO69">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI68">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:34:18+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -765,8 +762,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -781,13 +778,6 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -798,9 +788,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1352,7 +1339,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the component.code pattern</t>
+    <t>Slice based on the type of component</t>
   </si>
   <si>
     <t>open</t>
@@ -1432,156 +1419,26 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>gest_age</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="76516-4"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
+    <t>time</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>arvTreatmentStatusForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
+  </si>
+  <si>
+    <t>hivTestResultForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
   </si>
 </sst>
 </file>
@@ -1710,21 +1567,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1901,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1911,7 +1753,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1937,7 +1779,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2078,7 +1920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2195,7 +2037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>90</v>
       </c>
@@ -2312,7 +2154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>98</v>
       </c>
@@ -2427,7 +2269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -2544,7 +2386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>110</v>
       </c>
@@ -2661,7 +2503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2778,7 +2620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>127</v>
       </c>
@@ -2895,7 +2737,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>135</v>
       </c>
@@ -3012,7 +2854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -3131,7 +2973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3248,7 +3090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3365,7 +3207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3482,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3601,7 +3443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3736,7 +3578,7 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3837,7 +3679,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>211</v>
       </c>
@@ -3956,7 +3798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -4073,7 +3915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4192,7 +4034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>238</v>
       </c>
@@ -4266,14 +4108,16 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>238</v>
@@ -4291,19 +4135,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4311,13 +4155,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4327,7 +4169,7 @@
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4336,20 +4178,18 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4397,7 +4237,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4412,19 +4252,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4432,7 +4272,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4443,10 +4283,10 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4455,18 +4295,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4514,13 +4354,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4529,27 +4369,27 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4560,7 +4400,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4572,17 +4412,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4631,42 +4473,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4686,22 +4528,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4726,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4750,7 +4592,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4759,7 +4601,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4768,35 +4610,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4811,16 +4653,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4845,40 +4687,40 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4887,28 +4729,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4927,19 +4769,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4964,13 +4806,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4988,7 +4830,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5006,24 +4848,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5034,7 +4876,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -5046,20 +4888,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5083,13 +4923,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5107,13 +4947,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5125,24 +4965,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5168,15 +5008,17 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5200,13 +5042,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5224,7 +5066,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5242,24 +5084,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5282,20 +5124,18 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5319,31 +5159,31 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5361,24 +5201,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5401,16 +5241,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5460,7 +5300,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5478,24 +5318,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5506,7 +5346,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5518,18 +5358,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5577,42 +5419,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5623,7 +5465,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5635,20 +5477,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5696,19 +5534,19 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5717,10 +5555,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5729,20 +5567,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5754,15 +5592,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5811,19 +5651,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5835,7 +5675,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5844,13 +5684,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5863,24 +5703,26 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5928,7 +5770,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5952,7 +5794,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5961,45 +5803,41 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6047,19 +5885,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -6068,10 +5906,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6080,9 +5918,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6105,13 +5943,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6162,7 +6000,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6171,7 +6009,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6183,10 +6021,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6195,9 +6033,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6220,16 +6058,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6253,13 +6095,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6277,7 +6119,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6286,7 +6128,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6295,13 +6137,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6310,9 +6152,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6323,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6338,16 +6180,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6372,37 +6214,37 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6414,13 +6256,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6429,9 +6271,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6442,7 +6284,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6454,19 +6296,17 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6491,13 +6331,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6515,13 +6355,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6533,13 +6373,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6548,9 +6388,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6573,18 +6413,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>398</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6632,7 +6470,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6653,10 +6491,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6665,9 +6503,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6678,7 +6516,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6687,18 +6525,20 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6747,13 +6587,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6768,10 +6608,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6780,9 +6620,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6805,16 +6645,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6864,7 +6704,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6885,10 +6725,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6897,9 +6737,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6922,18 +6762,20 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6969,19 +6811,19 @@
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7002,10 +6844,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7014,9 +6856,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7027,7 +6869,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -7036,23 +6878,19 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7088,31 +6926,31 @@
         <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7121,32 +6959,32 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7158,15 +6996,17 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7215,19 +7055,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7239,7 +7079,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7248,13 +7088,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7267,24 +7107,26 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7332,7 +7174,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7356,7 +7198,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7365,44 +7207,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7427,13 +7269,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7451,42 +7293,42 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7494,7 +7336,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7509,19 +7351,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>269</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7546,34 +7388,34 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AF48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7588,24 +7430,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7625,22 +7467,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7665,13 +7507,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7689,7 +7531,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7698,7 +7540,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7707,35 +7549,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7750,16 +7592,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7784,13 +7626,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7808,16 +7650,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7826,28 +7668,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7866,19 +7708,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7903,13 +7745,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7927,7 +7769,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7945,26 +7787,28 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7982,22 +7826,22 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8046,7 +7890,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8067,10 +7911,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8081,11 +7925,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8097,29 +7939,25 @@
         <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8167,19 +8005,19 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -8188,32 +8026,32 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>81</v>
@@ -8225,15 +8063,17 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8282,19 +8122,19 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>81</v>
@@ -8306,7 +8146,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8315,13 +8155,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8334,24 +8174,26 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8399,7 +8241,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8423,7 +8265,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8432,44 +8274,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8494,13 +8336,11 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8518,42 +8358,42 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8561,7 +8401,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>91</v>
@@ -8576,19 +8416,19 @@
         <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>189</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>269</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8598,7 +8438,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8613,34 +8453,34 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AF57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -8655,24 +8495,24 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8692,22 +8532,22 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>454</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8732,29 +8572,31 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8763,7 +8605,7 @@
         <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -8772,37 +8614,35 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8811,22 +8651,22 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>454</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>291</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -8851,13 +8691,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -8875,13 +8715,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -8893,24 +8733,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8921,7 +8761,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -8933,16 +8773,20 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8990,19 +8834,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9011,10 +8855,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9023,20 +8867,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9045,21 +8891,23 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9095,19 +8943,19 @@
         <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9119,7 +8967,7 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -9128,10 +8976,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9142,7 +8990,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9156,29 +9004,25 @@
         <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>461</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9226,7 +9070,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>466</v>
+        <v>357</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9238,7 +9082,7 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9247,10 +9091,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>468</v>
+        <v>358</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9259,49 +9103,47 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>470</v>
+        <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9321,13 +9163,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9345,19 +9187,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>476</v>
+        <v>361</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9366,10 +9208,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9378,42 +9220,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9462,19 +9306,19 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>483</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9483,10 +9327,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>134</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9495,9 +9339,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9505,7 +9349,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>91</v>
@@ -9520,17 +9364,19 @@
         <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>489</v>
+        <v>203</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9555,13 +9401,11 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9579,16 +9423,16 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -9597,24 +9441,24 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>484</v>
+        <v>207</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>492</v>
+        <v>208</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9637,19 +9481,19 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>111</v>
+        <v>451</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>269</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
+        <v>271</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9698,7 +9542,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9716,24 +9560,24 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>274</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>499</v>
+        <v>275</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9759,16 +9603,16 @@
         <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9793,13 +9637,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9817,7 +9661,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9826,7 +9670,7 @@
         <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -9841,7 +9685,7 @@
         <v>134</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9850,13 +9694,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9878,16 +9722,16 @@
         <v>189</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9912,13 +9756,13 @@
         <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>81</v>
@@ -9936,7 +9780,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9954,24 +9798,24 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>301</v>
-      </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9997,16 +9841,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10055,7 +9899,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10076,37 +9920,1084 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -762,8 +765,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -778,6 +781,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -788,6 +798,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1339,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the type of component</t>
+    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>open</t>
@@ -1419,26 +1432,156 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>gest_age</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="76516-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>arvTreatmentStatusForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
-  </si>
-  <si>
-    <t>hivTestResultForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
 </sst>
 </file>
@@ -1567,6 +1710,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1743,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1753,7 +1911,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1779,7 +1937,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1920,7 +2078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2037,7 +2195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>90</v>
       </c>
@@ -2154,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>98</v>
       </c>
@@ -2269,7 +2427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -2386,7 +2544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>110</v>
       </c>
@@ -2503,7 +2661,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2620,7 +2778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>127</v>
       </c>
@@ -2737,7 +2895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>135</v>
       </c>
@@ -2854,7 +3012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -2973,7 +3131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3090,7 +3248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3207,7 +3365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3324,7 +3482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3443,7 +3601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3578,7 +3736,7 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3679,7 +3837,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>211</v>
       </c>
@@ -3798,7 +3956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -3915,7 +4073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4034,7 +4192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>238</v>
       </c>
@@ -4108,16 +4266,14 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>238</v>
@@ -4135,19 +4291,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4155,11 +4311,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4169,7 +4327,7 @@
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4178,18 +4336,20 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4237,7 +4397,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4252,19 +4412,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4272,7 +4432,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4283,10 +4443,10 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4295,18 +4455,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4354,13 +4514,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4369,27 +4529,27 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4400,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4412,19 +4572,17 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4473,42 +4631,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4528,22 +4686,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4568,13 +4726,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4592,7 +4750,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4601,7 +4759,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4610,35 +4768,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4653,16 +4811,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4687,13 +4845,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4711,16 +4869,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4729,28 +4887,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4769,19 +4927,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4806,13 +4964,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4830,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4848,24 +5006,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4876,7 +5034,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4888,18 +5046,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4923,13 +5083,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -4947,13 +5107,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -4965,24 +5125,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5008,17 +5168,15 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5042,13 +5200,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5066,7 +5224,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5084,24 +5242,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5124,18 +5282,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5159,13 +5319,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5183,7 +5343,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5201,24 +5361,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5241,16 +5401,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5300,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5318,24 +5478,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5346,7 +5506,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5358,20 +5518,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5419,42 +5577,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5465,7 +5623,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5477,16 +5635,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5534,53 +5696,53 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5592,17 +5754,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5651,32 +5811,32 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5684,13 +5844,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5703,26 +5863,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5770,7 +5928,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5794,7 +5952,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5803,41 +5961,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5885,19 +6047,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5906,10 +6068,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5918,9 +6080,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5943,13 +6105,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6000,7 +6162,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6009,7 +6171,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6021,21 +6183,21 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6058,20 +6220,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6095,13 +6253,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6119,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6286,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6137,13 +6295,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6152,9 +6310,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6165,7 +6323,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6180,16 +6338,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6214,13 +6372,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6238,13 +6396,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6256,13 +6414,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6271,9 +6429,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6284,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6296,17 +6454,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6331,13 +6491,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6355,13 +6515,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6373,13 +6533,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6388,9 +6548,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6413,16 +6573,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6470,7 +6632,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6491,21 +6653,21 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6516,7 +6678,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6525,20 +6687,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6587,13 +6747,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6608,10 +6768,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6620,9 +6780,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6645,16 +6805,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6704,7 +6864,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6725,10 +6885,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6737,9 +6897,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6762,20 +6922,18 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6811,19 +6969,19 @@
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6844,10 +7002,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6856,9 +7014,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6869,7 +7027,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6878,19 +7036,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6926,31 +7088,31 @@
         <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -6959,10 +7121,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6971,20 +7133,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -6996,17 +7158,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7055,32 +7215,32 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7088,13 +7248,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7107,26 +7267,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7174,7 +7332,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7198,7 +7356,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7207,44 +7365,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7269,13 +7427,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7293,42 +7451,42 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7336,7 +7494,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7351,19 +7509,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7388,13 +7546,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7412,10 +7570,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7430,24 +7588,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7467,22 +7625,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7507,13 +7665,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7531,7 +7689,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7540,7 +7698,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7549,35 +7707,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7592,16 +7750,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7626,13 +7784,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7650,16 +7808,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7668,28 +7826,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7708,19 +7866,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>447</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>293</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7745,13 +7903,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7769,7 +7927,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7787,28 +7945,26 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B52" t="s" s="2">
         <v>449</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7826,22 +7982,22 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7890,7 +8046,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7911,10 +8067,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -7925,9 +8081,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7939,25 +8097,29 @@
         <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8005,19 +8167,19 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -8026,10 +8188,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8038,20 +8200,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>81</v>
@@ -8063,17 +8225,15 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8122,32 +8282,32 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8155,13 +8315,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8174,26 +8334,24 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8241,7 +8399,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8265,7 +8423,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8274,44 +8432,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8336,11 +8494,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8358,42 +8518,42 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8401,7 +8561,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>91</v>
@@ -8416,19 +8576,19 @@
         <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8438,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8453,13 +8613,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8477,10 +8637,10 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -8495,24 +8655,24 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8532,22 +8692,22 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8572,31 +8732,29 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8605,7 +8763,7 @@
         <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -8614,35 +8772,37 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8651,22 +8811,22 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -8691,13 +8851,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -8715,13 +8875,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -8733,24 +8893,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8761,7 +8921,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -8773,20 +8933,16 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8834,19 +8990,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -8855,10 +9011,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8867,22 +9023,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -8891,23 +9045,21 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>418</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8943,19 +9095,19 @@
         <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8967,7 +9119,7 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -8976,10 +9128,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -8990,7 +9142,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9004,25 +9156,29 @@
         <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>461</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>355</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9070,7 +9226,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9082,7 +9238,7 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9091,10 +9247,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9103,47 +9259,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9163,13 +9321,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9187,19 +9345,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9208,10 +9366,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9220,44 +9378,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9306,19 +9462,19 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9327,10 +9483,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>134</v>
+        <v>485</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9339,9 +9495,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9349,7 +9505,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>91</v>
@@ -9364,19 +9520,17 @@
         <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>203</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9401,11 +9555,13 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9423,16 +9579,16 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -9441,24 +9597,24 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>207</v>
+        <v>484</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>208</v>
+        <v>492</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9481,19 +9637,19 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>451</v>
+        <v>111</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>269</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9542,7 +9698,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9560,24 +9716,24 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9603,16 +9759,16 @@
         <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9637,13 +9793,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9661,7 +9817,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9670,7 +9826,7 @@
         <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -9685,7 +9841,7 @@
         <v>134</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9694,13 +9850,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9722,16 +9878,16 @@
         <v>189</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9756,13 +9912,13 @@
         <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>81</v>
@@ -9780,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9798,24 +9954,24 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9841,16 +9997,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -9899,7 +10055,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9920,1084 +10076,37 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO69">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI68">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T06:55:36+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -765,8 +762,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -781,13 +778,6 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -798,9 +788,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1352,7 +1339,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the component.code pattern</t>
+    <t>Slice based on the type of component</t>
   </si>
   <si>
     <t>open</t>
@@ -1432,156 +1419,26 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>gest_age</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="76516-4"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
+    <t>time</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>arvTreatmentStatusForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
+  </si>
+  <si>
+    <t>hivTestResultForChild</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
   </si>
 </sst>
 </file>
@@ -1710,21 +1567,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1901,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1911,7 +1753,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1937,7 +1779,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2078,7 +1920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2195,7 +2037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>90</v>
       </c>
@@ -2312,7 +2154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>98</v>
       </c>
@@ -2427,7 +2269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -2544,7 +2386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>110</v>
       </c>
@@ -2661,7 +2503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2778,7 +2620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>127</v>
       </c>
@@ -2895,7 +2737,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>135</v>
       </c>
@@ -3012,7 +2854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -3131,7 +2973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3248,7 +3090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3365,7 +3207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3482,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3601,7 +3443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3736,7 +3578,7 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3837,7 +3679,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>211</v>
       </c>
@@ -3956,7 +3798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -4073,7 +3915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4192,7 +4034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>238</v>
       </c>
@@ -4266,14 +4108,16 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>238</v>
@@ -4291,19 +4135,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4311,13 +4155,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4327,7 +4169,7 @@
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4336,20 +4178,18 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4397,7 +4237,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4412,19 +4252,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4432,7 +4272,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4443,10 +4283,10 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4455,18 +4295,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4514,13 +4354,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4529,27 +4369,27 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4560,7 +4400,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4572,17 +4412,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4631,42 +4473,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4686,22 +4528,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4726,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4750,7 +4592,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4759,7 +4601,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4768,35 +4610,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4811,16 +4653,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4845,40 +4687,40 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4887,28 +4729,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4927,19 +4769,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4964,13 +4806,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4988,7 +4830,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5006,24 +4848,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5034,7 +4876,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -5046,20 +4888,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5083,13 +4923,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5107,13 +4947,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5125,24 +4965,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5168,15 +5008,17 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5200,13 +5042,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5224,7 +5066,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5242,24 +5084,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5282,20 +5124,18 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5319,31 +5159,31 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5361,24 +5201,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5401,16 +5241,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5460,7 +5300,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5478,24 +5318,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5506,7 +5346,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5518,18 +5358,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5577,42 +5419,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5623,7 +5465,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5635,20 +5477,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5696,19 +5534,19 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5717,10 +5555,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5729,20 +5567,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5754,15 +5592,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5811,19 +5651,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5835,7 +5675,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5844,13 +5684,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5863,24 +5703,26 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5928,7 +5770,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5952,7 +5794,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5961,45 +5803,41 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6047,19 +5885,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -6068,10 +5906,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6080,9 +5918,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6105,13 +5943,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6162,7 +6000,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6171,7 +6009,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6183,10 +6021,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6195,9 +6033,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6220,16 +6058,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6253,13 +6095,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6277,7 +6119,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6286,7 +6128,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6295,13 +6137,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6310,9 +6152,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6323,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6338,16 +6180,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6372,37 +6214,37 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6414,13 +6256,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6429,9 +6271,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6442,7 +6284,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6454,19 +6296,17 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6491,13 +6331,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6515,13 +6355,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6533,13 +6373,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6548,9 +6388,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6573,18 +6413,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>398</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6632,7 +6470,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6653,10 +6491,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6665,9 +6503,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6678,7 +6516,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6687,18 +6525,20 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6747,13 +6587,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6768,10 +6608,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6780,9 +6620,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6805,16 +6645,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6864,7 +6704,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6885,10 +6725,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6897,9 +6737,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6922,18 +6762,20 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6969,19 +6811,19 @@
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7002,10 +6844,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7014,9 +6856,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7027,7 +6869,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -7036,23 +6878,19 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7088,31 +6926,31 @@
         <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7121,32 +6959,32 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7158,15 +6996,17 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7215,19 +7055,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7239,7 +7079,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7248,13 +7088,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7267,24 +7107,26 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7332,7 +7174,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7356,7 +7198,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7365,44 +7207,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7427,13 +7269,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7451,42 +7293,42 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7494,7 +7336,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7509,19 +7351,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>269</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7546,34 +7388,34 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AF48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7588,24 +7430,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7625,22 +7467,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7665,13 +7507,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7689,7 +7531,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7698,7 +7540,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7707,35 +7549,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7750,16 +7592,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7784,13 +7626,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7808,16 +7650,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7826,28 +7668,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7866,19 +7708,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7903,13 +7745,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7927,7 +7769,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7945,26 +7787,28 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7982,22 +7826,22 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8046,7 +7890,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8067,10 +7911,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8081,11 +7925,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8097,29 +7939,25 @@
         <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8167,19 +8005,19 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -8188,32 +8026,32 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>81</v>
@@ -8225,15 +8063,17 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8282,19 +8122,19 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>81</v>
@@ -8306,7 +8146,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8315,13 +8155,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8334,24 +8174,26 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8399,7 +8241,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8423,7 +8265,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8432,44 +8274,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8494,13 +8336,11 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8518,42 +8358,42 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8561,7 +8401,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>91</v>
@@ -8576,19 +8416,19 @@
         <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>189</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>269</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8598,7 +8438,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8613,34 +8453,34 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AF57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -8655,24 +8495,24 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8692,22 +8532,22 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>454</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8732,29 +8572,31 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8763,7 +8605,7 @@
         <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -8772,37 +8614,35 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8811,22 +8651,22 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>454</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>291</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -8851,13 +8691,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -8875,13 +8715,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -8893,24 +8733,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8921,7 +8761,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -8933,16 +8773,20 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8990,19 +8834,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9011,10 +8855,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9023,20 +8867,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9045,21 +8891,23 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9095,19 +8943,19 @@
         <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9119,7 +8967,7 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -9128,10 +8976,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9142,7 +8990,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9156,29 +9004,25 @@
         <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>461</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9226,7 +9070,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>466</v>
+        <v>357</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9238,7 +9082,7 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9247,10 +9091,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>468</v>
+        <v>358</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9259,49 +9103,47 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>470</v>
+        <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9321,13 +9163,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9345,19 +9187,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>476</v>
+        <v>361</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9366,10 +9208,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9378,42 +9220,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9462,19 +9306,19 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>483</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9483,10 +9327,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>134</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9495,9 +9339,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9505,7 +9349,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>91</v>
@@ -9520,17 +9364,19 @@
         <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>489</v>
+        <v>203</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9555,13 +9401,11 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9579,16 +9423,16 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -9597,24 +9441,24 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>484</v>
+        <v>207</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>492</v>
+        <v>208</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9637,19 +9481,19 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>111</v>
+        <v>451</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>269</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
+        <v>271</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9698,7 +9542,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9716,24 +9560,24 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>274</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>499</v>
+        <v>275</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9759,16 +9603,16 @@
         <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9793,13 +9637,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9817,7 +9661,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9826,7 +9670,7 @@
         <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -9841,7 +9685,7 @@
         <v>134</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9850,13 +9694,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9878,16 +9722,16 @@
         <v>189</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9912,13 +9756,13 @@
         <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>81</v>
@@ -9936,7 +9780,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9954,24 +9798,24 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>301</v>
-      </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9997,16 +9841,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10055,7 +9899,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10076,37 +9920,1084 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:10:28+00:00</t>
+    <t>2022-03-23T08:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -762,8 +765,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -778,6 +781,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -788,6 +798,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1339,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the type of component</t>
+    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>open</t>
@@ -1419,26 +1432,156 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>gest_age</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="76516-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>arvTreatmentStatusForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
-  </si>
-  <si>
-    <t>hivTestResultForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
 </sst>
 </file>
@@ -1567,6 +1710,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1743,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1753,7 +1911,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1779,7 +1937,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1920,7 +2078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2037,7 +2195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>90</v>
       </c>
@@ -2154,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>98</v>
       </c>
@@ -2269,7 +2427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -2386,7 +2544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>110</v>
       </c>
@@ -2503,7 +2661,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2620,7 +2778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>127</v>
       </c>
@@ -2737,7 +2895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>135</v>
       </c>
@@ -2854,7 +3012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -2973,7 +3131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3090,7 +3248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3207,7 +3365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3324,7 +3482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3443,7 +3601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3578,7 +3736,7 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3679,7 +3837,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>211</v>
       </c>
@@ -3798,7 +3956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -3915,7 +4073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4034,7 +4192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>238</v>
       </c>
@@ -4108,16 +4266,14 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>238</v>
@@ -4135,19 +4291,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4155,11 +4311,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4169,7 +4327,7 @@
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4178,18 +4336,20 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4237,7 +4397,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4252,19 +4412,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4272,7 +4432,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4283,10 +4443,10 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4295,18 +4455,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4354,13 +4514,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4369,27 +4529,27 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4400,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4412,19 +4572,17 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4473,42 +4631,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4528,22 +4686,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4568,13 +4726,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4592,7 +4750,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4601,7 +4759,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4610,35 +4768,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4653,16 +4811,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4687,13 +4845,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4711,16 +4869,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4729,28 +4887,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4769,19 +4927,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4806,13 +4964,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4830,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4848,24 +5006,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4876,7 +5034,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4888,18 +5046,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4923,13 +5083,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -4947,13 +5107,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -4965,24 +5125,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5008,17 +5168,15 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5042,13 +5200,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5066,7 +5224,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5084,24 +5242,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5124,18 +5282,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5159,13 +5319,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5183,7 +5343,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5201,24 +5361,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5241,16 +5401,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5300,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5318,24 +5478,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5346,7 +5506,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5358,20 +5518,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5419,42 +5577,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5465,7 +5623,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5477,16 +5635,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5534,53 +5696,53 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5592,17 +5754,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5651,32 +5811,32 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5684,13 +5844,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5703,26 +5863,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5770,7 +5928,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5794,7 +5952,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5803,41 +5961,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5885,19 +6047,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5906,10 +6068,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5918,9 +6080,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5943,13 +6105,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6000,7 +6162,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6009,7 +6171,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6021,21 +6183,21 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6058,20 +6220,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6095,13 +6253,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6119,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6286,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6137,13 +6295,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6152,9 +6310,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6165,7 +6323,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6180,16 +6338,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6214,13 +6372,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6238,13 +6396,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6256,13 +6414,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6271,9 +6429,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6284,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6296,17 +6454,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6331,13 +6491,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6355,13 +6515,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6373,13 +6533,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6388,9 +6548,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6413,16 +6573,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6470,7 +6632,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6491,21 +6653,21 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6516,7 +6678,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6525,20 +6687,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6587,13 +6747,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6608,10 +6768,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6620,9 +6780,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6645,16 +6805,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6704,7 +6864,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6725,10 +6885,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6737,9 +6897,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6762,20 +6922,18 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6811,19 +6969,19 @@
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6844,10 +7002,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6856,9 +7014,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6869,7 +7027,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6878,19 +7036,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6926,31 +7088,31 @@
         <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -6959,10 +7121,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6971,20 +7133,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -6996,17 +7158,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7055,32 +7215,32 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7088,13 +7248,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7107,26 +7267,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7174,7 +7332,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7198,7 +7356,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7207,44 +7365,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7269,13 +7427,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7293,42 +7451,42 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7336,7 +7494,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7351,19 +7509,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7388,13 +7546,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7412,10 +7570,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7430,24 +7588,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7467,22 +7625,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7507,13 +7665,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7531,7 +7689,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7540,7 +7698,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7549,35 +7707,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7592,16 +7750,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7626,13 +7784,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7650,16 +7808,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7668,28 +7826,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7708,19 +7866,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>447</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>293</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7745,13 +7903,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7769,7 +7927,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7787,28 +7945,26 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B52" t="s" s="2">
         <v>449</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7826,22 +7982,22 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7890,7 +8046,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7911,10 +8067,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -7925,9 +8081,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7939,25 +8097,29 @@
         <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8005,19 +8167,19 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -8026,10 +8188,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8038,20 +8200,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>81</v>
@@ -8063,17 +8225,15 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8122,32 +8282,32 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8155,13 +8315,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8174,26 +8334,24 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8241,7 +8399,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8265,7 +8423,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8274,44 +8432,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8336,11 +8494,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8358,42 +8518,42 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8401,7 +8561,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>91</v>
@@ -8416,19 +8576,19 @@
         <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8438,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8453,13 +8613,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8477,10 +8637,10 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -8495,24 +8655,24 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8532,22 +8692,22 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8572,31 +8732,29 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8605,7 +8763,7 @@
         <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -8614,35 +8772,37 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8651,22 +8811,22 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -8691,13 +8851,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -8715,13 +8875,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -8733,24 +8893,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8761,7 +8921,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -8773,20 +8933,16 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8834,19 +8990,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -8855,10 +9011,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8867,22 +9023,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -8891,23 +9045,21 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>418</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8943,19 +9095,19 @@
         <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8967,7 +9119,7 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -8976,10 +9128,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -8990,7 +9142,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9004,25 +9156,29 @@
         <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>461</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>355</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9070,7 +9226,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9082,7 +9238,7 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9091,10 +9247,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9103,47 +9259,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9163,13 +9321,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9187,19 +9345,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9208,10 +9366,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9220,44 +9378,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9306,19 +9462,19 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9327,10 +9483,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>134</v>
+        <v>485</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9339,9 +9495,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9349,7 +9505,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>91</v>
@@ -9364,19 +9520,17 @@
         <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>203</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9401,11 +9555,13 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9423,16 +9579,16 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -9441,24 +9597,24 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>207</v>
+        <v>484</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>208</v>
+        <v>492</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9481,19 +9637,19 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>451</v>
+        <v>111</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>269</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9542,7 +9698,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9560,24 +9716,24 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9603,16 +9759,16 @@
         <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9637,13 +9793,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9661,7 +9817,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9670,7 +9826,7 @@
         <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -9685,7 +9841,7 @@
         <v>134</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9694,13 +9850,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9722,16 +9878,16 @@
         <v>189</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9756,13 +9912,13 @@
         <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>81</v>
@@ -9780,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9798,24 +9954,24 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9841,16 +9997,16 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -9899,7 +10055,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9920,1084 +10076,37 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO69">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI68">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pregnancy-status.xlsx
+++ b/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
